--- a/consumption_tables/Total energy consumption._              Billion Btu/Hydropower, total consumed._                Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Hydropower, total consumed._                Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
   <si>
     <t>StateCode</t>
   </si>
@@ -56,151 +56,586 @@
     <t>AL</t>
   </si>
   <si>
+    <t>6.474292737314783%</t>
+  </si>
+  <si>
+    <t>4.812734249111967%</t>
+  </si>
+  <si>
+    <t>-1.6615584882028154%</t>
+  </si>
+  <si>
     <t>AR</t>
   </si>
   <si>
+    <t>4.441562538336167%</t>
+  </si>
+  <si>
+    <t>3.1512019873008295%</t>
+  </si>
+  <si>
+    <t>-1.2903605510353375%</t>
+  </si>
+  <si>
     <t>AZ</t>
   </si>
   <si>
+    <t>8.217818302267201%</t>
+  </si>
+  <si>
+    <t>4.229985769479457%</t>
+  </si>
+  <si>
+    <t>-3.9878325327877437%</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
+    <t>3.324175698716239%</t>
+  </si>
+  <si>
+    <t>1.6763327314840144%</t>
+  </si>
+  <si>
+    <t>-1.6478429672322246%</t>
+  </si>
+  <si>
     <t>CO</t>
   </si>
   <si>
+    <t>1.583107517107723%</t>
+  </si>
+  <si>
+    <t>1.0199786924573055%</t>
+  </si>
+  <si>
+    <t>-0.5631288246504174%</t>
+  </si>
+  <si>
     <t>CT</t>
   </si>
   <si>
+    <t>0.7726299485217075%</t>
+  </si>
+  <si>
+    <t>0.375065526701632%</t>
+  </si>
+  <si>
+    <t>-0.3975644218200755%</t>
+  </si>
+  <si>
     <t>DE</t>
   </si>
   <si>
+    <t>0.0%</t>
+  </si>
+  <si>
     <t>FL</t>
   </si>
   <si>
+    <t>0.05535135767797397%</t>
+  </si>
+  <si>
+    <t>0.05368137030125928%</t>
+  </si>
+  <si>
+    <t>-0.001669987376714692%</t>
+  </si>
+  <si>
     <t>GA</t>
   </si>
   <si>
+    <t>2.1409138979110214%</t>
+  </si>
+  <si>
+    <t>0.9751628778738616%</t>
+  </si>
+  <si>
+    <t>-1.1657510200371597%</t>
+  </si>
+  <si>
     <t>HI</t>
   </si>
   <si>
+    <t>0.2572949496143687%</t>
+  </si>
+  <si>
+    <t>0.3997620548265337%</t>
+  </si>
+  <si>
+    <t>0.142467105212165%</t>
+  </si>
+  <si>
     <t>IA</t>
   </si>
   <si>
+    <t>0.9623933919107363%</t>
+  </si>
+  <si>
+    <t>0.5986085094995987%</t>
+  </si>
+  <si>
+    <t>-0.3637848824111376%</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>23.3869575298337%</t>
+  </si>
+  <si>
+    <t>15.562310841916762%</t>
+  </si>
+  <si>
+    <t>-7.824646687916939%</t>
+  </si>
+  <si>
     <t>IL</t>
   </si>
   <si>
+    <t>0.041801922553351904%</t>
+  </si>
+  <si>
+    <t>0.029421163962117716%</t>
+  </si>
+  <si>
+    <t>-0.012380758591234189%</t>
+  </si>
+  <si>
     <t>IN</t>
   </si>
   <si>
+    <t>0.18407908499695275%</t>
+  </si>
+  <si>
+    <t>0.1248257866958126%</t>
+  </si>
+  <si>
+    <t>-0.05925329830114015%</t>
+  </si>
+  <si>
     <t>KS</t>
   </si>
   <si>
+    <t>0.012940067794703011%</t>
+  </si>
+  <si>
+    <t>0.016349060760314456%</t>
+  </si>
+  <si>
+    <t>0.0034089929656114445%</t>
+  </si>
+  <si>
     <t>KY</t>
   </si>
   <si>
+    <t>2.2473292712689266%</t>
+  </si>
+  <si>
+    <t>1.8381594412208573%</t>
+  </si>
+  <si>
+    <t>-0.4091698300480693%</t>
+  </si>
+  <si>
     <t>LA</t>
   </si>
   <si>
+    <t>0.17699454502242043%</t>
+  </si>
+  <si>
+    <t>0.2186011498749207%</t>
+  </si>
+  <si>
+    <t>0.041606604852500284%</t>
+  </si>
+  <si>
     <t>MA</t>
   </si>
   <si>
+    <t>0.9237000317022096%</t>
+  </si>
+  <si>
+    <t>0.5335468720477223%</t>
+  </si>
+  <si>
+    <t>-0.39015315965448727%</t>
+  </si>
+  <si>
     <t>MD</t>
   </si>
   <si>
+    <t>1.8844461676308366%</t>
+  </si>
+  <si>
+    <t>1.0809122908309312%</t>
+  </si>
+  <si>
+    <t>-0.8035338767999054%</t>
+  </si>
+  <si>
     <t>ME</t>
   </si>
   <si>
+    <t>9.305183785580573%</t>
+  </si>
+  <si>
+    <t>7.720221176435786%</t>
+  </si>
+  <si>
+    <t>-1.5849626091447861%</t>
+  </si>
+  <si>
     <t>MI</t>
   </si>
   <si>
+    <t>0.5891917037187551%</t>
+  </si>
+  <si>
+    <t>0.504851576310605%</t>
+  </si>
+  <si>
+    <t>-0.08434012740815011%</t>
+  </si>
+  <si>
     <t>MN</t>
   </si>
   <si>
+    <t>0.6363248332993103%</t>
+  </si>
+  <si>
+    <t>0.4470256017076468%</t>
+  </si>
+  <si>
+    <t>-0.1892992315916635%</t>
+  </si>
+  <si>
     <t>MO</t>
   </si>
   <si>
+    <t>1.5368770970129235%</t>
+  </si>
+  <si>
+    <t>0.8136810527929229%</t>
+  </si>
+  <si>
+    <t>-0.7231960442200006%</t>
+  </si>
+  <si>
     <t>MS</t>
   </si>
   <si>
     <t>MT</t>
   </si>
   <si>
+    <t>32.07471709188004%</t>
+  </si>
+  <si>
+    <t>23.540111487504916%</t>
+  </si>
+  <si>
+    <t>-8.534605604375123%</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
+    <t>3.4507702403659755%</t>
+  </si>
+  <si>
+    <t>1.751026956646124%</t>
+  </si>
+  <si>
+    <t>-1.6997432837198514%</t>
+  </si>
+  <si>
     <t>ND</t>
   </si>
   <si>
+    <t>5.695643547881294%</t>
+  </si>
+  <si>
+    <t>3.21217717339601%</t>
+  </si>
+  <si>
+    <t>-2.4834663744852836%</t>
+  </si>
+  <si>
     <t>NE</t>
   </si>
   <si>
+    <t>2.2566950141102904%</t>
+  </si>
+  <si>
+    <t>1.8405361021472924%</t>
+  </si>
+  <si>
+    <t>-0.41615891196299803%</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
+    <t>7.315997083621544%</t>
+  </si>
+  <si>
+    <t>3.87826246502454%</t>
+  </si>
+  <si>
+    <t>-3.4377346185970037%</t>
+  </si>
+  <si>
     <t>NJ</t>
   </si>
   <si>
+    <t>0.014515668684760195%</t>
+  </si>
+  <si>
+    <t>0.0038904501687974527%</t>
+  </si>
+  <si>
+    <t>-0.010625218515962744%</t>
+  </si>
+  <si>
     <t>NM</t>
   </si>
   <si>
+    <t>0.35829313643138694%</t>
+  </si>
+  <si>
+    <t>0.1372201013385991%</t>
+  </si>
+  <si>
+    <t>-0.22107303509278783%</t>
+  </si>
+  <si>
     <t>NV</t>
   </si>
   <si>
+    <t>4.477567505879784%</t>
+  </si>
+  <si>
+    <t>3.248308797945617%</t>
+  </si>
+  <si>
+    <t>-1.229258707934167%</t>
+  </si>
+  <si>
     <t>NY</t>
   </si>
   <si>
+    <t>7.849447713850428%</t>
+  </si>
+  <si>
+    <t>6.509083703676656%</t>
+  </si>
+  <si>
+    <t>-1.3403640101737722%</t>
+  </si>
+  <si>
     <t>OH</t>
   </si>
   <si>
+    <t>0.050043333761190134%</t>
+  </si>
+  <si>
+    <t>0.11377102565274656%</t>
+  </si>
+  <si>
+    <t>0.06372769189155643%</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
+    <t>2.0540263008507824%</t>
+  </si>
+  <si>
+    <t>1.5221936757681485%</t>
+  </si>
+  <si>
+    <t>-0.531832625082634%</t>
+  </si>
+  <si>
     <t>OR</t>
   </si>
   <si>
+    <t>43.85440136741512%</t>
+  </si>
+  <si>
+    <t>30.443967337450296%</t>
+  </si>
+  <si>
+    <t>-13.410434029964826%</t>
+  </si>
+  <si>
     <t>PA</t>
   </si>
   <si>
+    <t>0.8208010710429523%</t>
+  </si>
+  <si>
+    <t>0.6251407365345087%</t>
+  </si>
+  <si>
+    <t>-0.19566033450844356%</t>
+  </si>
+  <si>
     <t>RI</t>
   </si>
   <si>
+    <t>0.04842364578338176%</t>
+  </si>
+  <si>
+    <t>0.014309540022303146%</t>
+  </si>
+  <si>
+    <t>-0.03411410576107861%</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
+    <t>2.716315072278558%</t>
+  </si>
+  <si>
+    <t>1.4496314198222857%</t>
+  </si>
+  <si>
+    <t>-1.2666836524562723%</t>
+  </si>
+  <si>
     <t>SD</t>
   </si>
   <si>
+    <t>18.832483572309446%</t>
+  </si>
+  <si>
+    <t>11.786732168793138%</t>
+  </si>
+  <si>
+    <t>-7.045751403516308%</t>
+  </si>
+  <si>
     <t>TN</t>
   </si>
   <si>
+    <t>5.813479817995337%</t>
+  </si>
+  <si>
+    <t>4.119491458173006%</t>
+  </si>
+  <si>
+    <t>-1.693988359822331%</t>
+  </si>
+  <si>
     <t>TX</t>
   </si>
   <si>
+    <t>0.18104186844290895%</t>
+  </si>
+  <si>
+    <t>0.06910584265747902%</t>
+  </si>
+  <si>
+    <t>-0.11193602578542994%</t>
+  </si>
+  <si>
     <t>UT</t>
   </si>
   <si>
+    <t>0.9870170586555741%</t>
+  </si>
+  <si>
+    <t>0.9056649570618226%</t>
+  </si>
+  <si>
+    <t>-0.0813521015937515%</t>
+  </si>
+  <si>
     <t>VA</t>
   </si>
   <si>
+    <t>0.6936455629549169%</t>
+  </si>
+  <si>
+    <t>0.45592788610376567%</t>
+  </si>
+  <si>
+    <t>-0.2377176768511512%</t>
+  </si>
+  <si>
     <t>VT</t>
   </si>
   <si>
+    <t>11.255826489520246%</t>
+  </si>
+  <si>
+    <t>8.04469696969697%</t>
+  </si>
+  <si>
+    <t>-3.2111295198232757%</t>
+  </si>
+  <si>
     <t>WA</t>
   </si>
   <si>
+    <t>44.45715430509203%</t>
+  </si>
+  <si>
+    <t>34.40263851128096%</t>
+  </si>
+  <si>
+    <t>-10.05451579381107%</t>
+  </si>
+  <si>
     <t>WI</t>
   </si>
   <si>
+    <t>1.4112652018801604%</t>
+  </si>
+  <si>
+    <t>1.2280808428846979%</t>
+  </si>
+  <si>
+    <t>-0.18318435899546248%</t>
+  </si>
+  <si>
     <t>WV</t>
   </si>
   <si>
+    <t>1.9120657009109672%</t>
+  </si>
+  <si>
+    <t>1.6656020337714457%</t>
+  </si>
+  <si>
+    <t>-0.2464636671395215%</t>
+  </si>
+  <si>
     <t>WY</t>
   </si>
   <si>
+    <t>1.6786378623592062%</t>
+  </si>
+  <si>
+    <t>1.5447915075607148%</t>
+  </si>
+  <si>
+    <t>-0.13384635479849138%</t>
+  </si>
+  <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>3.604940136327348%</t>
+  </si>
+  <si>
+    <t>2.386789264039009%</t>
+  </si>
+  <si>
+    <t>-1.218150872288339%</t>
   </si>
 </sst>
 </file>
@@ -631,14 +1066,14 @@
       <c r="G2" s="2" t="n">
         <v>4854000</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>0.06474292737314782</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0.04812734249111968</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>-0.01661558488202815</v>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>0.02662518518518519</v>
@@ -655,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>38016</v>
@@ -672,14 +1107,14 @@
       <c r="G3" s="2" t="n">
         <v>2978000</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0.04441562538336167</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0.03151201987300829</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>-0.01290360551035338</v>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>0.01612897751378872</v>
@@ -696,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>77158</v>
@@ -713,14 +1148,14 @@
       <c r="G4" s="2" t="n">
         <v>6818000</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>0.08217818302267201</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0.04229985769479457</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>-0.03987832532787743</v>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0.02094408251900108</v>
@@ -737,7 +1172,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>247490</v>
@@ -754,14 +1189,14 @@
       <c r="G5" s="2" t="n">
         <v>38994000</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>0.03324175698716239</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0.01676332731484015</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>-0.01647842967232225</v>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>0.00826068090787717</v>
@@ -778,7 +1213,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>14769</v>
@@ -795,14 +1230,14 @@
       <c r="G6" s="2" t="n">
         <v>5449000</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>0.01583107517107723</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0.01019978692457306</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>-0.005631288246504173</v>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>0.004464631197097944</v>
@@ -819,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>5936</v>
@@ -836,14 +1271,14 @@
       <c r="G7" s="2" t="n">
         <v>3585000</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>0.007726299485217075</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.00375065526701632</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>-0.003975644218200755</v>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="n">
         <v>0.001803159173754556</v>
@@ -860,7 +1295,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0</v>
@@ -875,14 +1310,14 @@
       <c r="G8" s="2" t="n">
         <v>944000</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0</v>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="K8" s="2" t="n">
         <v>0</v>
@@ -899,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1816</v>
@@ -916,14 +1351,14 @@
       <c r="G9" s="2" t="n">
         <v>20245000</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>0.0005535135767797397</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0.0005368137030125928</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>-1.669987376714686e-05</v>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>0.0001393386020102816</v>
@@ -940,7 +1375,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>47736</v>
@@ -957,14 +1392,14 @@
       <c r="G10" s="2" t="n">
         <v>10199000</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <v>0.02140913897911021</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0.009751628778738615</v>
-      </c>
-      <c r="J10" s="3" t="n">
-        <v>-0.0116575102003716</v>
+      <c r="H10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>0.007329341317365269</v>
@@ -981,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>827</v>
@@ -998,14 +1433,14 @@
       <c r="G11" s="2" t="n">
         <v>1425000</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0.002572949496143687</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0.003997620548265337</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>0.00142467105212165</v>
+      <c r="H11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>0.00074303683737646</v>
@@ -1022,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>9103</v>
@@ -1039,14 +1474,14 @@
       <c r="G12" s="2" t="n">
         <v>3122000</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <v>0.009623933919107363</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0.005986085094995986</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>-0.003637848824111376</v>
+      <c r="H12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>0.003273282991729594</v>
@@ -1063,7 +1498,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>94814</v>
@@ -1080,14 +1515,14 @@
       <c r="G13" s="2" t="n">
         <v>1653000</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <v>0.233869575298337</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0.1556231084191676</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>-0.07824646687916939</v>
+      <c r="H13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>0.0936897233201581</v>
@@ -1104,7 +1539,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1497</v>
@@ -1121,14 +1556,14 @@
       <c r="G14" s="2" t="n">
         <v>12839000</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>0.000418019225533519</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>0.0002942116396211772</v>
-      </c>
-      <c r="J14" s="3" t="n">
-        <v>-0.0001238075859123419</v>
+      <c r="H14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>0.0001307081114118572</v>
@@ -1145,7 +1580,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4588</v>
@@ -1162,14 +1597,14 @@
       <c r="G15" s="2" t="n">
         <v>6613000</v>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>0.001840790849969527</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0.001248257866958126</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>-0.0005925329830114014</v>
+      <c r="H15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>0.0008254767902123066</v>
@@ -1186,7 +1621,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>138</v>
@@ -1203,14 +1638,14 @@
       <c r="G16" s="2" t="n">
         <v>2907000</v>
       </c>
-      <c r="H16" s="2" t="n">
-        <v>0.0001294006779470301</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0.0001634906076031446</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>3.408992965611444e-05</v>
+      <c r="H16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>5.562273276904474e-05</v>
@@ -1227,7 +1662,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>32874</v>
@@ -1244,14 +1679,14 @@
       <c r="G17" s="2" t="n">
         <v>4425000</v>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>0.02247329271268927</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0.01838159441220857</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>-0.004091698300480694</v>
+      <c r="H17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>0.008899296155928533</v>
@@ -1268,7 +1703,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>6829</v>
@@ -1285,14 +1720,14 @@
       <c r="G18" s="2" t="n">
         <v>4669000</v>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>0.001769945450224204</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0.002186011498749207</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>0.0004160660485250029</v>
+      <c r="H18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>0.00161747986736144</v>
@@ -1309,7 +1744,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>12995</v>
@@ -1326,14 +1761,14 @@
       <c r="G19" s="2" t="n">
         <v>6784000</v>
       </c>
-      <c r="H19" s="2" t="n">
-        <v>0.009237000317022096</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>0.005335468720477223</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>-0.003901531596544873</v>
+      <c r="H19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>0.002157562676407106</v>
@@ -1350,7 +1785,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>23913</v>
@@ -1367,14 +1802,14 @@
       <c r="G20" s="2" t="n">
         <v>5995000</v>
       </c>
-      <c r="H20" s="2" t="n">
-        <v>0.01884446167630837</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>0.01080912290830931</v>
-      </c>
-      <c r="J20" s="3" t="n">
-        <v>-0.008035338767999054</v>
+      <c r="H20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>0.004981875</v>
@@ -1391,7 +1826,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>42550</v>
@@ -1408,14 +1843,14 @@
       <c r="G21" s="2" t="n">
         <v>1329000</v>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>0.09305183785580573</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>0.07720221176435786</v>
-      </c>
-      <c r="J21" s="3" t="n">
-        <v>-0.01584962609144787</v>
+      <c r="H21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="K21" s="2" t="n">
         <v>0.03453733766233767</v>
@@ -1432,7 +1867,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>16934</v>
@@ -1449,14 +1884,14 @@
       <c r="G22" s="2" t="n">
         <v>9918000</v>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>0.005891917037187551</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0.00504851576310605</v>
-      </c>
-      <c r="J22" s="3" t="n">
-        <v>-0.0008434012740815011</v>
+      <c r="H22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="K22" s="2" t="n">
         <v>0.001818709053807325</v>
@@ -1473,7 +1908,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>8915</v>
@@ -1490,14 +1925,14 @@
       <c r="G23" s="2" t="n">
         <v>5482000</v>
       </c>
-      <c r="H23" s="2" t="n">
-        <v>0.006363248332993104</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0.004470256017076468</v>
-      </c>
-      <c r="J23" s="3" t="n">
-        <v>-0.001892992315916635</v>
+      <c r="H23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="K23" s="2" t="n">
         <v>0.002030751708428246</v>
@@ -1514,7 +1949,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>22802</v>
@@ -1531,14 +1966,14 @@
       <c r="G24" s="2" t="n">
         <v>6076000</v>
       </c>
-      <c r="H24" s="2" t="n">
-        <v>0.01536877097012923</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0.008136810527929229</v>
-      </c>
-      <c r="J24" s="3" t="n">
-        <v>-0.007231960442200005</v>
+      <c r="H24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>0.004445700916357965</v>
@@ -1555,7 +1990,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>0</v>
@@ -1570,14 +2005,14 @@
       <c r="G25" s="2" t="n">
         <v>2989000</v>
       </c>
-      <c r="H25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>0</v>
+      <c r="H25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="K25" s="2" t="n">
         <v>0</v>
@@ -1594,7 +2029,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>111476</v>
@@ -1611,14 +2046,14 @@
       <c r="G26" s="2" t="n">
         <v>1032000</v>
       </c>
-      <c r="H26" s="2" t="n">
-        <v>0.3207471709188004</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0.2354011148750492</v>
-      </c>
-      <c r="J26" s="3" t="n">
-        <v>-0.08534605604375123</v>
+      <c r="H26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>0.139345</v>
@@ -1635,7 +2070,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>70936</v>
@@ -1652,14 +2087,14 @@
       <c r="G27" s="2" t="n">
         <v>10035000</v>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>0.03450770240365975</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0.01751026956646124</v>
-      </c>
-      <c r="J27" s="3" t="n">
-        <v>-0.01699743283719851</v>
+      <c r="H27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="K27" s="2" t="n">
         <v>0.01064465786314526</v>
@@ -1676,7 +2111,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>17799</v>
@@ -1693,14 +2128,14 @@
       <c r="G28" s="2" t="n">
         <v>757000</v>
       </c>
-      <c r="H28" s="2" t="n">
-        <v>0.05695643547881293</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>0.0321217717339601</v>
-      </c>
-      <c r="J28" s="3" t="n">
-        <v>-0.02483466374485283</v>
+      <c r="H28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>0.02789811912225705</v>
@@ -1717,7 +2152,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>11859</v>
@@ -1734,14 +2169,14 @@
       <c r="G29" s="2" t="n">
         <v>2884000</v>
       </c>
-      <c r="H29" s="2" t="n">
-        <v>0.02256695014110291</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0.01840536102147292</v>
-      </c>
-      <c r="J29" s="3" t="n">
-        <v>-0.004161589119629983</v>
+      <c r="H29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="K29" s="2" t="n">
         <v>0.009712530712530712</v>
@@ -1758,7 +2193,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>19567</v>
@@ -1775,14 +2210,14 @@
       <c r="G30" s="2" t="n">
         <v>1330000</v>
       </c>
-      <c r="H30" s="2" t="n">
-        <v>0.07315997083621543</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0.0387826246502454</v>
-      </c>
-      <c r="J30" s="3" t="n">
-        <v>-0.03437734618597003</v>
+      <c r="H30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>0.01759622302158273</v>
@@ -1799,7 +2234,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>326</v>
@@ -1816,14 +2251,14 @@
       <c r="G31" s="2" t="n">
         <v>8935000</v>
       </c>
-      <c r="H31" s="2" t="n">
-        <v>0.000145156686847602</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>3.890450168797453e-05</v>
-      </c>
-      <c r="J31" s="3" t="n">
-        <v>-0.0001062521851596274</v>
+      <c r="H31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>4.199407445575164e-05</v>
@@ -1840,7 +2275,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2137</v>
@@ -1857,14 +2292,14 @@
       <c r="G32" s="2" t="n">
         <v>2080000</v>
       </c>
-      <c r="H32" s="2" t="n">
-        <v>0.00358293136431387</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0.001372201013385991</v>
-      </c>
-      <c r="J32" s="3" t="n">
-        <v>-0.002210730350927878</v>
+      <c r="H32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>0.00140407358738502</v>
@@ -1881,7 +2316,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>18048</v>
@@ -1898,14 +2333,14 @@
       <c r="G33" s="2" t="n">
         <v>1894000</v>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>0.04477567505879784</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>0.03248308797945617</v>
-      </c>
-      <c r="J33" s="3" t="n">
-        <v>-0.01229258707934167</v>
+      <c r="H33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="K33" s="2" t="n">
         <v>0.01140834386852086</v>
@@ -1922,7 +2357,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>293214</v>
@@ -1939,14 +2374,14 @@
       <c r="G34" s="2" t="n">
         <v>19747000</v>
       </c>
-      <c r="H34" s="2" t="n">
-        <v>0.07849447713850428</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>0.06509083703676656</v>
-      </c>
-      <c r="J34" s="3" t="n">
-        <v>-0.01340364010173772</v>
+      <c r="H34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>0.01627068420176461</v>
@@ -1963,7 +2398,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1887</v>
@@ -1980,14 +2415,14 @@
       <c r="G35" s="2" t="n">
         <v>11605000</v>
       </c>
-      <c r="H35" s="2" t="n">
-        <v>0.0005004333376119013</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>0.001137710256527466</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>0.0006372769189155643</v>
+      <c r="H35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>0.0001736929307805596</v>
@@ -2004,7 +2439,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>28404</v>
@@ -2021,14 +2456,14 @@
       <c r="G36" s="2" t="n">
         <v>3907000</v>
       </c>
-      <c r="H36" s="2" t="n">
-        <v>0.02054026300850782</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0.01522193675768148</v>
-      </c>
-      <c r="J36" s="3" t="n">
-        <v>-0.005318326250826339</v>
+      <c r="H36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>0.009020006351222611</v>
@@ -2045,7 +2480,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>428982</v>
@@ -2062,14 +2497,14 @@
       <c r="G37" s="2" t="n">
         <v>4025000</v>
       </c>
-      <c r="H37" s="2" t="n">
-        <v>0.4385440136741512</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0.304439673374503</v>
-      </c>
-      <c r="J37" s="3" t="n">
-        <v>-0.1341043402996482</v>
+      <c r="H37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>0.1499937062937063</v>
@@ -2086,7 +2521,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>29845</v>
@@ -2103,14 +2538,14 @@
       <c r="G38" s="2" t="n">
         <v>12792000</v>
       </c>
-      <c r="H38" s="2" t="n">
-        <v>0.008208010710429522</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>0.006251407365345087</v>
-      </c>
-      <c r="J38" s="3" t="n">
-        <v>-0.001956603345084435</v>
+      <c r="H38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>0.002507351087961018</v>
@@ -2127,7 +2562,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>103</v>
@@ -2144,14 +2579,14 @@
       <c r="G39" s="2" t="n">
         <v>1056000</v>
       </c>
-      <c r="H39" s="2" t="n">
-        <v>0.0004842364578338175</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0.0001430954002230315</v>
-      </c>
-      <c r="J39" s="3" t="n">
-        <v>-0.0003411410576107861</v>
+      <c r="H39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>0.0001023856858846918</v>
@@ -2168,7 +2603,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>34306</v>
@@ -2185,14 +2620,14 @@
       <c r="G40" s="2" t="n">
         <v>4895000</v>
       </c>
-      <c r="H40" s="2" t="n">
-        <v>0.02716315072278558</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>0.01449631419822286</v>
-      </c>
-      <c r="J40" s="3" t="n">
-        <v>-0.01266683652456273</v>
+      <c r="H40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>0.009798914595829763</v>
@@ -2209,7 +2644,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>40926</v>
@@ -2226,14 +2661,14 @@
       <c r="G41" s="2" t="n">
         <v>858000</v>
       </c>
-      <c r="H41" s="2" t="n">
-        <v>0.1883248357230945</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>0.1178673216879314</v>
-      </c>
-      <c r="J41" s="3" t="n">
-        <v>-0.07045751403516308</v>
+      <c r="H41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>0.05871736011477762</v>
@@ -2250,7 +2685,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>104180</v>
@@ -2267,14 +2702,14 @@
       <c r="G42" s="2" t="n">
         <v>6595000</v>
       </c>
-      <c r="H42" s="2" t="n">
-        <v>0.05813479817995337</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0.04119491458173007</v>
-      </c>
-      <c r="J42" s="3" t="n">
-        <v>-0.01693988359822331</v>
+      <c r="H42" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>0.02128729055986923</v>
@@ -2291,7 +2726,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>18657</v>
@@ -2308,14 +2743,14 @@
       <c r="G43" s="2" t="n">
         <v>27430000</v>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>0.001810418684429089</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0.0006910584265747902</v>
-      </c>
-      <c r="J43" s="3" t="n">
-        <v>-0.001119360257854299</v>
+      <c r="H43" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>0.001093803130679487</v>
@@ -2332,7 +2767,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>5289</v>
@@ -2349,14 +2784,14 @@
       <c r="G44" s="2" t="n">
         <v>2991000</v>
       </c>
-      <c r="H44" s="2" t="n">
-        <v>0.009870170586555741</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0.009056649570618226</v>
-      </c>
-      <c r="J44" s="3" t="n">
-        <v>-0.0008135210159375145</v>
+      <c r="H44" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>0.003055459272097054</v>
@@ -2373,7 +2808,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>13621</v>
@@ -2390,14 +2825,14 @@
       <c r="G45" s="2" t="n">
         <v>8368000</v>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>0.006936455629549168</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0.004559278861037657</v>
-      </c>
-      <c r="J45" s="3" t="n">
-        <v>-0.002377176768511511</v>
+      <c r="H45" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>0.002190928100369953</v>
@@ -2414,7 +2849,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>14199</v>
@@ -2431,14 +2866,14 @@
       <c r="G46" s="2" t="n">
         <v>626000</v>
       </c>
-      <c r="H46" s="2" t="n">
-        <v>0.1125582648952025</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>0.0804469696969697</v>
-      </c>
-      <c r="J46" s="3" t="n">
-        <v>-0.03211129519823276</v>
+      <c r="H46" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>0.02513097345132743</v>
@@ -2455,7 +2890,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>909829</v>
@@ -2472,14 +2907,14 @@
       <c r="G47" s="2" t="n">
         <v>7160000</v>
       </c>
-      <c r="H47" s="4" t="n">
-        <v>0.4445715430509203</v>
-      </c>
-      <c r="I47" s="4" t="n">
-        <v>0.3440263851128096</v>
-      </c>
-      <c r="J47" s="3" t="n">
-        <v>-0.1005451579381107</v>
+      <c r="H47" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>0.1855657760554763</v>
@@ -2496,7 +2931,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>20954</v>
@@ -2513,14 +2948,14 @@
       <c r="G48" s="2" t="n">
         <v>5768000</v>
       </c>
-      <c r="H48" s="2" t="n">
-        <v>0.0141126520188016</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>0.01228080842884698</v>
-      </c>
-      <c r="J48" s="3" t="n">
-        <v>-0.001831843589954623</v>
+      <c r="H48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>0.004271967380224261</v>
@@ -2537,7 +2972,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>13471</v>
@@ -2554,14 +2989,14 @@
       <c r="G49" s="2" t="n">
         <v>1841000</v>
       </c>
-      <c r="H49" s="2" t="n">
-        <v>0.01912065700910967</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>0.01665602033771446</v>
-      </c>
-      <c r="J49" s="3" t="n">
-        <v>-0.002464636671395213</v>
+      <c r="H49" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>0.007513106525376464</v>
@@ -2578,7 +3013,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>6705</v>
@@ -2595,14 +3030,14 @@
       <c r="G50" s="2" t="n">
         <v>587000</v>
       </c>
-      <c r="H50" s="2" t="n">
-        <v>0.01678637862359206</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>0.01544791507560715</v>
-      </c>
-      <c r="J50" s="3" t="n">
-        <v>-0.001338463547984912</v>
+      <c r="H50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="K50" s="2" t="n">
         <v>0.01476872246696035</v>
@@ -2619,7 +3054,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>3046391</v>
@@ -2636,14 +3071,14 @@
       <c r="G51" s="4" t="n">
         <v>320897000</v>
       </c>
-      <c r="H51" s="2" t="n">
-        <v>0.03604940136327348</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0.02386789264039009</v>
-      </c>
-      <c r="J51" s="3" t="n">
-        <v>-0.01218150872288339</v>
+      <c r="H51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>0.01220396758311534</v>

--- a/consumption_tables/Total energy consumption._              Billion Btu/Hydropower, total consumed._                Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Hydropower, total consumed._                Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>StateCode</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>ChangeConsumptionPerCapita</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>1.7355410104385849%</t>
+  </si>
+  <si>
+    <t>2.3586404706633908%</t>
+  </si>
+  <si>
+    <t>0.6230994602248059%</t>
   </si>
   <si>
     <t>AL</t>
@@ -699,8 +711,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -998,7 +1010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1052,19 +1064,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>107832</v>
+        <v>10137</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>91902</v>
+        <v>14621</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.8522701980859114</v>
+        <v>1.442339942783861</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4050000</v>
+        <v>553000</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4854000</v>
+        <v>738000</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
@@ -1072,17 +1084,17 @@
       <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>0.02662518518518519</v>
+        <v>0.01833092224231465</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>0.01893325092707046</v>
+        <v>0.01981165311653117</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>-0.007691934258114728</v>
+        <v>0.001480730874216518</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1093,19 +1105,19 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>38016</v>
+        <v>107832</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>33261</v>
+        <v>91902</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.8749210858585859</v>
+        <v>0.8522701980859114</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2357000</v>
+        <v>4050000</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2978000</v>
+        <v>4854000</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
@@ -1117,13 +1129,13 @@
         <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>0.01612897751378872</v>
+        <v>0.02662518518518519</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>0.01116890530557421</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>-0.004960072208214504</v>
+        <v>0.01893325092707046</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>-0.007691934258114728</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1134,19 +1146,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>77158</v>
+        <v>38016</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>60906</v>
+        <v>33261</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.7893672723502424</v>
+        <v>0.8749210858585859</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3684000</v>
+        <v>2357000</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6818000</v>
+        <v>2978000</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
@@ -1158,13 +1170,13 @@
         <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0.02094408251900108</v>
+        <v>0.01612897751378872</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.008933118216485772</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>-0.01201096430251531</v>
+        <v>0.01116890530557421</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>-0.004960072208214504</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1175,19 +1187,19 @@
         <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>247490</v>
+        <v>77158</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>128681</v>
+        <v>60906</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.51994424017132</v>
+        <v>0.7893672723502424</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>29960000</v>
+        <v>3684000</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>38994000</v>
+        <v>6818000</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>25</v>
@@ -1199,13 +1211,13 @@
         <v>27</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>0.00826068090787717</v>
+        <v>0.02094408251900108</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0.003300020515976817</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>-0.004960660391900353</v>
+        <v>0.008933118216485772</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>-0.01201096430251531</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1216,19 +1228,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>14769</v>
+        <v>247490</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>15098</v>
+        <v>128681</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.022276389735256</v>
+        <v>0.51994424017132</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3308000</v>
+        <v>29960000</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5449000</v>
+        <v>38994000</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
@@ -1240,13 +1252,13 @@
         <v>31</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0.004464631197097944</v>
+        <v>0.00826068090787717</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.002770783630023857</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>-0.001693847567074087</v>
+        <v>0.003300020515976817</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>-0.004960660391900353</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1257,19 +1269,19 @@
         <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>5936</v>
+        <v>14769</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2819</v>
+        <v>15098</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.4748989218328841</v>
+        <v>1.022276389735256</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3292000</v>
+        <v>3308000</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3585000</v>
+        <v>5449000</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>33</v>
@@ -1281,13 +1293,13 @@
         <v>35</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.001803159173754556</v>
+        <v>0.004464631197097944</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.0007863319386331939</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>-0.001016827235121363</v>
+        <v>0.002770783630023857</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>-0.001693847567074087</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1298,35 +1310,37 @@
         <v>36</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0</v>
+        <v>5936</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s"/>
+        <v>2819</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0.4748989218328841</v>
+      </c>
       <c r="F8" s="2" t="n">
-        <v>670000</v>
+        <v>3292000</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>944000</v>
+        <v>3585000</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0</v>
+        <v>0.001803159173754556</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>0</v>
+        <v>0.0007863319386331939</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>-0.001016827235121363</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1334,40 +1348,38 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1816</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2277</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>1.253854625550661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s"/>
       <c r="F9" s="2" t="n">
-        <v>13033000</v>
+        <v>670000</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>20245000</v>
+        <v>944000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.0001393386020102816</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.0001124722153618177</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>-2.686638664846387e-05</v>
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1378,19 +1390,19 @@
         <v>42</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>47736</v>
+        <v>1816</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>27804</v>
+        <v>2277</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.5824534942182001</v>
+        <v>1.253854625550661</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6513000</v>
+        <v>13033000</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>10199000</v>
+        <v>20245000</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>43</v>
@@ -1402,13 +1414,13 @@
         <v>45</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.007329341317365269</v>
+        <v>0.0001393386020102816</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.002726149622512011</v>
-      </c>
-      <c r="M10" s="3" t="n">
-        <v>-0.004603191694853258</v>
+        <v>0.0001124722153618177</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>-2.686638664846387e-05</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1419,19 +1431,19 @@
         <v>46</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>827</v>
+        <v>47736</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1129</v>
+        <v>27804</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1.365175332527207</v>
+        <v>0.5824534942182001</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1113000</v>
+        <v>6513000</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1425000</v>
+        <v>10199000</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>47</v>
@@ -1439,17 +1451,17 @@
       <c r="I11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.00074303683737646</v>
+        <v>0.007329341317365269</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.000792280701754386</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>4.924386437792593e-05</v>
+        <v>0.002726149622512011</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>-0.004603191694853258</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1460,19 +1472,19 @@
         <v>50</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>9103</v>
+        <v>827</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>8948</v>
+        <v>1129</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.9829726463803142</v>
+        <v>1.365175332527207</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2781000</v>
+        <v>1113000</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3122000</v>
+        <v>1425000</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>51</v>
@@ -1484,13 +1496,13 @@
         <v>53</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0.003273282991729594</v>
+        <v>0.00074303683737646</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.002866111467008328</v>
-      </c>
-      <c r="M12" s="3" t="n">
-        <v>-0.0004071715247212656</v>
+        <v>0.000792280701754386</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>4.924386437792593e-05</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1501,19 +1513,19 @@
         <v>54</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>94814</v>
+        <v>9103</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>81603</v>
+        <v>8948</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.8606640369565676</v>
+        <v>0.9829726463803142</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1012000</v>
+        <v>2781000</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1653000</v>
+        <v>3122000</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>55</v>
@@ -1525,13 +1537,13 @@
         <v>57</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>0.0936897233201581</v>
+        <v>0.003273282991729594</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0.04936660617059891</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>-0.04432311714955919</v>
+        <v>0.002866111467008328</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <v>-0.0004071715247212656</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1542,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1497</v>
+        <v>94814</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1160</v>
+        <v>81603</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.7748830995323981</v>
+        <v>0.8606640369565676</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>11453000</v>
+        <v>1012000</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>12839000</v>
+        <v>1653000</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>59</v>
@@ -1566,13 +1578,13 @@
         <v>61</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0.0001307081114118572</v>
+        <v>0.0936897233201581</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>9.034971570994626e-05</v>
-      </c>
-      <c r="M14" s="3" t="n">
-        <v>-4.03583957019109e-05</v>
+        <v>0.04936660617059891</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <v>-0.04432311714955919</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1583,19 +1595,19 @@
         <v>62</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4588</v>
+        <v>1497</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>3553</v>
+        <v>1160</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.7744115082824761</v>
+        <v>0.7748830995323981</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5558000</v>
+        <v>11453000</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6613000</v>
+        <v>12839000</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>63</v>
@@ -1607,13 +1619,13 @@
         <v>65</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>0.0008254767902123066</v>
+        <v>0.0001307081114118572</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0.0005372750642673522</v>
-      </c>
-      <c r="M15" s="3" t="n">
-        <v>-0.0002882017259449544</v>
+        <v>9.034971570994626e-05</v>
+      </c>
+      <c r="M15" s="4" t="n">
+        <v>-4.03583957019109e-05</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1624,19 +1636,19 @@
         <v>66</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>138</v>
+        <v>4588</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>177</v>
+        <v>3553</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1.282608695652174</v>
+        <v>0.7744115082824761</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2481000</v>
+        <v>5558000</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2907000</v>
+        <v>6613000</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>67</v>
@@ -1648,13 +1660,13 @@
         <v>69</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>5.562273276904474e-05</v>
+        <v>0.0008254767902123066</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>6.08875128998968e-05</v>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>5.264780130852058e-06</v>
+        <v>0.0005372750642673522</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>-0.0002882017259449544</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1665,19 +1677,19 @@
         <v>70</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>32874</v>
+        <v>138</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>31717</v>
+        <v>177</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.9648050130802458</v>
+        <v>1.282608695652174</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3694000</v>
+        <v>2481000</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4425000</v>
+        <v>2907000</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>71</v>
@@ -1689,13 +1701,13 @@
         <v>73</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>0.008899296155928533</v>
+        <v>5.562273276904474e-05</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0.007167683615819209</v>
-      </c>
-      <c r="M17" s="3" t="n">
-        <v>-0.001731612540109324</v>
+        <v>6.08875128998968e-05</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>5.264780130852058e-06</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1706,19 +1718,19 @@
         <v>74</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>6829</v>
+        <v>32874</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>9310</v>
+        <v>31717</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1.363303558354078</v>
+        <v>0.9648050130802458</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4222000</v>
+        <v>3694000</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4669000</v>
+        <v>4425000</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>75</v>
@@ -1730,13 +1742,13 @@
         <v>77</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0.00161747986736144</v>
+        <v>0.008899296155928533</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0.001994002998500749</v>
+        <v>0.007167683615819209</v>
       </c>
       <c r="M18" s="4" t="n">
-        <v>0.0003765231311393094</v>
+        <v>-0.001731612540109324</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1747,19 +1759,19 @@
         <v>78</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>12995</v>
+        <v>6829</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>7709</v>
+        <v>9310</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.5932281646787226</v>
+        <v>1.363303558354078</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6023000</v>
+        <v>4222000</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6784000</v>
+        <v>4669000</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>79</v>
@@ -1771,13 +1783,13 @@
         <v>81</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>0.002157562676407106</v>
+        <v>0.00161747986736144</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0.001136350235849057</v>
-      </c>
-      <c r="M19" s="3" t="n">
-        <v>-0.00102121244055805</v>
+        <v>0.001994002998500749</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>0.0003765231311393094</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1788,19 +1800,19 @@
         <v>82</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>23913</v>
+        <v>12995</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>15127</v>
+        <v>7709</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.6325847865177937</v>
+        <v>0.5932281646787226</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4800000</v>
+        <v>6023000</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5995000</v>
+        <v>6784000</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>83</v>
@@ -1812,13 +1824,13 @@
         <v>85</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0.004981875</v>
+        <v>0.002157562676407106</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0.002523269391159299</v>
-      </c>
-      <c r="M20" s="3" t="n">
-        <v>-0.002458605608840701</v>
+        <v>0.001136350235849057</v>
+      </c>
+      <c r="M20" s="4" t="n">
+        <v>-0.00102121244055805</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1829,19 +1841,19 @@
         <v>86</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>42550</v>
+        <v>23913</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>31317</v>
+        <v>15127</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.7360047003525264</v>
+        <v>0.6325847865177937</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1232000</v>
+        <v>4800000</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1329000</v>
+        <v>5995000</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>87</v>
@@ -1853,13 +1865,13 @@
         <v>89</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>0.03453733766233767</v>
+        <v>0.004981875</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.02356433408577878</v>
-      </c>
-      <c r="M21" s="3" t="n">
-        <v>-0.01097300357655888</v>
+        <v>0.002523269391159299</v>
+      </c>
+      <c r="M21" s="4" t="n">
+        <v>-0.002458605608840701</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1870,19 +1882,19 @@
         <v>90</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>16934</v>
+        <v>42550</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>13971</v>
+        <v>31317</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.8250265737569387</v>
+        <v>0.7360047003525264</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>9311000</v>
+        <v>1232000</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>9918000</v>
+        <v>1329000</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>91</v>
@@ -1894,13 +1906,13 @@
         <v>93</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0.001818709053807325</v>
+        <v>0.03453733766233767</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0.00140865093768905</v>
-      </c>
-      <c r="M22" s="3" t="n">
-        <v>-0.0004100581161182745</v>
+        <v>0.02356433408577878</v>
+      </c>
+      <c r="M22" s="4" t="n">
+        <v>-0.01097300357655888</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1911,19 +1923,19 @@
         <v>94</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>8915</v>
+        <v>16934</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>7912</v>
+        <v>13971</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.8874929893438026</v>
+        <v>0.8250265737569387</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4390000</v>
+        <v>9311000</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5482000</v>
+        <v>9918000</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>95</v>
@@ -1935,13 +1947,13 @@
         <v>97</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>0.002030751708428246</v>
+        <v>0.001818709053807325</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0.001443268879970814</v>
-      </c>
-      <c r="M23" s="3" t="n">
-        <v>-0.0005874828284574325</v>
+        <v>0.00140865093768905</v>
+      </c>
+      <c r="M23" s="4" t="n">
+        <v>-0.0004100581161182745</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1952,19 +1964,19 @@
         <v>98</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>22802</v>
+        <v>8915</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>14864</v>
+        <v>7912</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.6518726427506359</v>
+        <v>0.8874929893438026</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5129000</v>
+        <v>4390000</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6076000</v>
+        <v>5482000</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>99</v>
@@ -1976,13 +1988,13 @@
         <v>101</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0.004445700916357965</v>
+        <v>0.002030751708428246</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0.002446346280447663</v>
-      </c>
-      <c r="M24" s="3" t="n">
-        <v>-0.001999354635910302</v>
+        <v>0.001443268879970814</v>
+      </c>
+      <c r="M24" s="4" t="n">
+        <v>-0.0005874828284574325</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1993,35 +2005,37 @@
         <v>102</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0</v>
+        <v>22802</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="s"/>
+        <v>14864</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>0.6518726427506359</v>
+      </c>
       <c r="F25" s="2" t="n">
-        <v>2579000</v>
+        <v>5129000</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2989000</v>
+        <v>6076000</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>0</v>
+        <v>0.004445700916357965</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>0</v>
+        <v>0.002446346280447663</v>
+      </c>
+      <c r="M25" s="4" t="n">
+        <v>-0.001999354635910302</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2029,40 +2043,38 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>111476</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>92144</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>0.8265815063332018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="s"/>
       <c r="F26" s="2" t="n">
-        <v>800000</v>
+        <v>2579000</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1032000</v>
+        <v>2989000</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0.139345</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0.08928682170542636</v>
-      </c>
-      <c r="M26" s="3" t="n">
-        <v>-0.05005817829457364</v>
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2073,19 +2085,19 @@
         <v>107</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>70936</v>
+        <v>111476</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44191</v>
+        <v>92144</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.6229700011277771</v>
+        <v>0.8265815063332018</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6664000</v>
+        <v>800000</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>10035000</v>
+        <v>1032000</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>108</v>
@@ -2097,13 +2109,13 @@
         <v>110</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>0.01064465786314526</v>
+        <v>0.139345</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0.004403687095166916</v>
-      </c>
-      <c r="M27" s="3" t="n">
-        <v>-0.006240970767978343</v>
+        <v>0.08928682170542636</v>
+      </c>
+      <c r="M27" s="4" t="n">
+        <v>-0.05005817829457364</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2114,19 +2126,19 @@
         <v>111</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>17799</v>
+        <v>70936</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>19516</v>
+        <v>44191</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1.096466093600764</v>
+        <v>0.6229700011277771</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>638000</v>
+        <v>6664000</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>757000</v>
+        <v>10035000</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>112</v>
@@ -2138,13 +2150,13 @@
         <v>114</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>0.02789811912225705</v>
+        <v>0.01064465786314526</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0.02578071334214002</v>
-      </c>
-      <c r="M28" s="3" t="n">
-        <v>-0.002117405780117029</v>
+        <v>0.004403687095166916</v>
+      </c>
+      <c r="M28" s="4" t="n">
+        <v>-0.006240970767978343</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2155,19 +2167,19 @@
         <v>115</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>11859</v>
+        <v>17799</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>15702</v>
+        <v>19516</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>1.324057677713129</v>
+        <v>1.096466093600764</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1221000</v>
+        <v>638000</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2884000</v>
+        <v>757000</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>116</v>
@@ -2179,13 +2191,13 @@
         <v>118</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>0.009712530712530712</v>
+        <v>0.02789811912225705</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>0.005444521497919556</v>
-      </c>
-      <c r="M29" s="3" t="n">
-        <v>-0.004268009214611156</v>
+        <v>0.02578071334214002</v>
+      </c>
+      <c r="M29" s="4" t="n">
+        <v>-0.002117405780117029</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2196,19 +2208,19 @@
         <v>119</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>19567</v>
+        <v>11859</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>11837</v>
+        <v>15702</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.6049471048193387</v>
+        <v>1.324057677713129</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1112000</v>
+        <v>1221000</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1330000</v>
+        <v>2884000</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>120</v>
@@ -2220,13 +2232,13 @@
         <v>122</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>0.01759622302158273</v>
+        <v>0.009712530712530712</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="M30" s="3" t="n">
-        <v>-0.008696223021582733</v>
+        <v>0.005444521497919556</v>
+      </c>
+      <c r="M30" s="4" t="n">
+        <v>-0.004268009214611156</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2237,19 +2249,19 @@
         <v>123</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>326</v>
+        <v>19567</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>89</v>
+        <v>11837</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.2730061349693251</v>
+        <v>0.6049471048193387</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>7763000</v>
+        <v>1112000</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>8935000</v>
+        <v>1330000</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>124</v>
@@ -2261,13 +2273,13 @@
         <v>126</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>4.199407445575164e-05</v>
+        <v>0.01759622302158273</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>9.960828203693341e-06</v>
-      </c>
-      <c r="M31" s="3" t="n">
-        <v>-3.20332462520583e-05</v>
+        <v>0.0089</v>
+      </c>
+      <c r="M31" s="4" t="n">
+        <v>-0.008696223021582733</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2278,19 +2290,19 @@
         <v>127</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>2137</v>
+        <v>326</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>927</v>
+        <v>89</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.4337856808610201</v>
+        <v>0.2730061349693251</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1522000</v>
+        <v>7763000</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2080000</v>
+        <v>8935000</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>128</v>
@@ -2302,13 +2314,13 @@
         <v>130</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>0.00140407358738502</v>
+        <v>4.199407445575164e-05</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0.0004456730769230769</v>
-      </c>
-      <c r="M32" s="3" t="n">
-        <v>-0.0009584005104619429</v>
+        <v>9.960828203693341e-06</v>
+      </c>
+      <c r="M32" s="4" t="n">
+        <v>-3.20332462520583e-05</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2319,19 +2331,19 @@
         <v>131</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>18048</v>
+        <v>2137</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>21099</v>
+        <v>927</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1.16904920212766</v>
+        <v>0.4337856808610201</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1582000</v>
+        <v>1522000</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1894000</v>
+        <v>2080000</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>132</v>
@@ -2343,13 +2355,13 @@
         <v>134</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>0.01140834386852086</v>
+        <v>0.00140407358738502</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0.01113991552270327</v>
-      </c>
-      <c r="M33" s="3" t="n">
-        <v>-0.0002684283458175857</v>
+        <v>0.0004456730769230769</v>
+      </c>
+      <c r="M33" s="4" t="n">
+        <v>-0.0009584005104619429</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2360,19 +2372,19 @@
         <v>135</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>293214</v>
+        <v>18048</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>242429</v>
+        <v>21099</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.8267988568076559</v>
+        <v>1.16904920212766</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>18021000</v>
+        <v>1582000</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>19747000</v>
+        <v>1894000</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>136</v>
@@ -2384,13 +2396,13 @@
         <v>138</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>0.01627068420176461</v>
+        <v>0.01140834386852086</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0.01227675089887072</v>
-      </c>
-      <c r="M34" s="3" t="n">
-        <v>-0.003993933302893894</v>
+        <v>0.01113991552270327</v>
+      </c>
+      <c r="M34" s="4" t="n">
+        <v>-0.0002684283458175857</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2401,19 +2413,19 @@
         <v>139</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>1887</v>
+        <v>293214</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>4256</v>
-      </c>
-      <c r="E35" s="4" t="n">
-        <v>2.255431902490726</v>
+        <v>242429</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>0.8267988568076559</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>10864000</v>
+        <v>18021000</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>11605000</v>
+        <v>19747000</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>140</v>
@@ -2425,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>0.0001736929307805596</v>
+        <v>0.01627068420176461</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0.0003667384747953468</v>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>0.0001930455440147872</v>
+        <v>0.01227675089887072</v>
+      </c>
+      <c r="M35" s="4" t="n">
+        <v>-0.003993933302893894</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2442,19 +2454,19 @@
         <v>143</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>28404</v>
+        <v>1887</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>24825</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>0.8739966201943389</v>
+        <v>4256</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>2.255431902490726</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>3149000</v>
+        <v>10864000</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3907000</v>
+        <v>11605000</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>144</v>
@@ -2466,13 +2478,13 @@
         <v>146</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>0.009020006351222611</v>
+        <v>0.0001736929307805596</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0.00635398003583312</v>
-      </c>
-      <c r="M36" s="3" t="n">
-        <v>-0.002666026315389491</v>
+        <v>0.0003667384747953468</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>0.0001930455440147872</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2483,19 +2495,19 @@
         <v>147</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>428982</v>
+        <v>28404</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>291255</v>
+        <v>24825</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.6789445711008854</v>
+        <v>0.8739966201943389</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2860000</v>
+        <v>3149000</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4025000</v>
+        <v>3907000</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>148</v>
@@ -2507,13 +2519,13 @@
         <v>150</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>0.1499937062937063</v>
+        <v>0.009020006351222611</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0.07236149068322982</v>
-      </c>
-      <c r="M37" s="3" t="n">
-        <v>-0.07763221561047647</v>
+        <v>0.00635398003583312</v>
+      </c>
+      <c r="M37" s="4" t="n">
+        <v>-0.002666026315389491</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2524,19 +2536,19 @@
         <v>151</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>29845</v>
+        <v>428982</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>24264</v>
+        <v>291255</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0.8130005025967498</v>
+        <v>0.6789445711008854</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>11903000</v>
+        <v>2860000</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>12792000</v>
+        <v>4025000</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>152</v>
@@ -2548,13 +2560,13 @@
         <v>154</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>0.002507351087961018</v>
+        <v>0.1499937062937063</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>0.001896810506566604</v>
-      </c>
-      <c r="M38" s="3" t="n">
-        <v>-0.0006105405813944143</v>
+        <v>0.07236149068322982</v>
+      </c>
+      <c r="M38" s="4" t="n">
+        <v>-0.07763221561047647</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2565,19 +2577,19 @@
         <v>155</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>103</v>
+        <v>29845</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>29</v>
+        <v>24264</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0.2815533980582524</v>
+        <v>0.8130005025967498</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1006000</v>
+        <v>11903000</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1056000</v>
+        <v>12792000</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>156</v>
@@ -2589,13 +2601,13 @@
         <v>158</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>0.0001023856858846918</v>
+        <v>0.002507351087961018</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>2.746212121212121e-05</v>
-      </c>
-      <c r="M39" s="3" t="n">
-        <v>-7.492356467257064e-05</v>
+        <v>0.001896810506566604</v>
+      </c>
+      <c r="M39" s="4" t="n">
+        <v>-0.0006105405813944143</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2606,19 +2618,19 @@
         <v>159</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>34306</v>
+        <v>103</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>23897</v>
+        <v>29</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>0.6965836879846091</v>
+        <v>0.2815533980582524</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>3501000</v>
+        <v>1006000</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>4895000</v>
+        <v>1056000</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>160</v>
@@ -2630,13 +2642,13 @@
         <v>162</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>0.009798914595829763</v>
+        <v>0.0001023856858846918</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0.004881920326864147</v>
-      </c>
-      <c r="M40" s="3" t="n">
-        <v>-0.004916994268965615</v>
+        <v>2.746212121212121e-05</v>
+      </c>
+      <c r="M40" s="4" t="n">
+        <v>-7.492356467257064e-05</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2647,19 +2659,19 @@
         <v>163</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>40926</v>
+        <v>34306</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45202</v>
+        <v>23897</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>1.10448125885745</v>
+        <v>0.6965836879846091</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>697000</v>
+        <v>3501000</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>858000</v>
+        <v>4895000</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>164</v>
@@ -2671,13 +2683,13 @@
         <v>166</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>0.05871736011477762</v>
+        <v>0.009798914595829763</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>0.05268298368298369</v>
-      </c>
-      <c r="M41" s="3" t="n">
-        <v>-0.006034376431793935</v>
+        <v>0.004881920326864147</v>
+      </c>
+      <c r="M41" s="4" t="n">
+        <v>-0.004916994268965615</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2688,19 +2700,19 @@
         <v>167</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>104180</v>
+        <v>40926</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>89288</v>
+        <v>45202</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0.8570550969475907</v>
+        <v>1.10448125885745</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>4894000</v>
+        <v>697000</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>6595000</v>
+        <v>858000</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>168</v>
@@ -2712,13 +2724,13 @@
         <v>170</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>0.02128729055986923</v>
+        <v>0.05871736011477762</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>0.01353874147081122</v>
-      </c>
-      <c r="M42" s="3" t="n">
-        <v>-0.007748549089058008</v>
+        <v>0.05268298368298369</v>
+      </c>
+      <c r="M42" s="4" t="n">
+        <v>-0.006034376431793935</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2729,19 +2741,19 @@
         <v>171</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>18657</v>
+        <v>104180</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>8913</v>
+        <v>89288</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>0.4777295385110146</v>
+        <v>0.8570550969475907</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>17057000</v>
+        <v>4894000</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>27430000</v>
+        <v>6595000</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>172</v>
@@ -2753,36 +2765,36 @@
         <v>174</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>0.001093803130679487</v>
+        <v>0.02128729055986923</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>0.0003249362012395188</v>
-      </c>
-      <c r="M43" s="3" t="n">
-        <v>-0.0007688669294399677</v>
+        <v>0.01353874147081122</v>
+      </c>
+      <c r="M43" s="4" t="n">
+        <v>-0.007748549089058008</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>5289</v>
+        <v>18657</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>7164</v>
+        <v>8913</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1.354509359047079</v>
+        <v>0.4777295385110146</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>1731000</v>
+        <v>17057000</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2991000</v>
+        <v>27430000</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>176</v>
@@ -2794,13 +2806,13 @@
         <v>178</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>0.003055459272097054</v>
+        <v>0.001093803130679487</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>0.00239518555667001</v>
-      </c>
-      <c r="M44" s="3" t="n">
-        <v>-0.0006602737154270434</v>
+        <v>0.0003249362012395188</v>
+      </c>
+      <c r="M44" s="4" t="n">
+        <v>-0.0007688669294399677</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2811,19 +2823,19 @@
         <v>179</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>13621</v>
+        <v>5289</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>10795</v>
+        <v>7164</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>0.7925262462374275</v>
+        <v>1.354509359047079</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>6217000</v>
+        <v>1731000</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>8368000</v>
+        <v>2991000</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>180</v>
@@ -2835,13 +2847,13 @@
         <v>182</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>0.002190928100369953</v>
+        <v>0.003055459272097054</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>0.001290033460803059</v>
-      </c>
-      <c r="M45" s="3" t="n">
-        <v>-0.000900894639566894</v>
+        <v>0.00239518555667001</v>
+      </c>
+      <c r="M45" s="4" t="n">
+        <v>-0.0006602737154270434</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2852,19 +2864,19 @@
         <v>183</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>14199</v>
+        <v>13621</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>10619</v>
+        <v>10795</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>0.7478695682794563</v>
+        <v>0.7925262462374275</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>565000</v>
+        <v>6217000</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>626000</v>
+        <v>8368000</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>184</v>
@@ -2876,13 +2888,13 @@
         <v>186</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>0.02513097345132743</v>
+        <v>0.002190928100369953</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0.01696325878594249</v>
-      </c>
-      <c r="M46" s="3" t="n">
-        <v>-0.008167714665384941</v>
+        <v>0.001290033460803059</v>
+      </c>
+      <c r="M46" s="4" t="n">
+        <v>-0.000900894639566894</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2893,37 +2905,37 @@
         <v>187</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>909829</v>
+        <v>14199</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>684060</v>
+        <v>10619</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>0.7518555684639641</v>
+        <v>0.7478695682794563</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>4903000</v>
+        <v>565000</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>7160000</v>
-      </c>
-      <c r="H47" s="4" t="s">
+        <v>626000</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="2" t="s">
         <v>189</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="K47" s="4" t="n">
-        <v>0.1855657760554763</v>
-      </c>
-      <c r="L47" s="4" t="n">
-        <v>0.09553910614525139</v>
-      </c>
-      <c r="M47" s="3" t="n">
-        <v>-0.09002666991022486</v>
+      <c r="K47" s="2" t="n">
+        <v>0.02513097345132743</v>
+      </c>
+      <c r="L47" s="2" t="n">
+        <v>0.01696325878594249</v>
+      </c>
+      <c r="M47" s="4" t="n">
+        <v>-0.008167714665384941</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2934,37 +2946,37 @@
         <v>191</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>20954</v>
+        <v>909829</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>21813</v>
+        <v>684060</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1.040994559511311</v>
+        <v>0.7518555684639641</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>4905000</v>
+        <v>4903000</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>5768000</v>
-      </c>
-      <c r="H48" s="2" t="s">
+        <v>7160000</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="3" t="s">
         <v>193</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="K48" s="2" t="n">
-        <v>0.004271967380224261</v>
-      </c>
-      <c r="L48" s="2" t="n">
-        <v>0.003781726768377254</v>
-      </c>
-      <c r="M48" s="3" t="n">
-        <v>-0.0004902406118470069</v>
+      <c r="K48" s="3" t="n">
+        <v>0.1855657760554763</v>
+      </c>
+      <c r="L48" s="3" t="n">
+        <v>0.09553910614525139</v>
+      </c>
+      <c r="M48" s="4" t="n">
+        <v>-0.09002666991022486</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2975,19 +2987,19 @@
         <v>195</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>13471</v>
+        <v>20954</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>12907</v>
+        <v>21813</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>0.9581322841659862</v>
+        <v>1.040994559511311</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>1793000</v>
+        <v>4905000</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1841000</v>
+        <v>5768000</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>196</v>
@@ -2999,36 +3011,36 @@
         <v>198</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>0.007513106525376464</v>
+        <v>0.004271967380224261</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>0.007010863661053775</v>
-      </c>
-      <c r="M49" s="3" t="n">
-        <v>-0.0005022428643226889</v>
+        <v>0.003781726768377254</v>
+      </c>
+      <c r="M49" s="4" t="n">
+        <v>-0.0004902406118470069</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>6705</v>
+        <v>13471</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>8091</v>
+        <v>12907</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>1.206711409395973</v>
+        <v>0.9581322841659862</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>454000</v>
+        <v>1793000</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>587000</v>
+        <v>1841000</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>200</v>
@@ -3040,36 +3052,36 @@
         <v>202</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>0.01476872246696035</v>
+        <v>0.007513106525376464</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>0.01378364565587734</v>
-      </c>
-      <c r="M50" s="3" t="n">
-        <v>-0.0009850768110830094</v>
+        <v>0.007010863661053775</v>
+      </c>
+      <c r="M50" s="4" t="n">
+        <v>-0.0005022428643226889</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C51" s="4" t="n">
-        <v>3046391</v>
-      </c>
-      <c r="D51" s="4" t="n">
-        <v>2321177</v>
+      <c r="C51" s="2" t="n">
+        <v>6705</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>8091</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>0.761943230530815</v>
-      </c>
-      <c r="F51" s="4" t="n">
-        <v>249623000</v>
-      </c>
-      <c r="G51" s="4" t="n">
-        <v>320897000</v>
+        <v>1.206711409395973</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>454000</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>587000</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>204</v>
@@ -3081,12 +3093,53 @@
         <v>206</v>
       </c>
       <c r="K51" s="2" t="n">
+        <v>0.01476872246696035</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>0.01378364565587734</v>
+      </c>
+      <c r="M51" s="4" t="n">
+        <v>-0.0009850768110830094</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>3046391</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>2321177</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>0.761943230530815</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>249623000</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>320897000</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K52" s="2" t="n">
         <v>0.01220396758311534</v>
       </c>
-      <c r="L51" s="2" t="n">
+      <c r="L52" s="2" t="n">
         <v>0.007233401995032674</v>
       </c>
-      <c r="M51" s="3" t="n">
+      <c r="M52" s="4" t="n">
         <v>-0.004970565588082665</v>
       </c>
     </row>
